--- a/data/data_explanation.xlsx
+++ b/data/data_explanation.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\nishika\prediction_of_old_apartment_2022_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B58149-93DF-4194-9317-86D51950EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2342C034-59C4-4517-97D6-6F461410CCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1335" windowWidth="14790" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル説明" sheetId="1" r:id="rId1"/>
     <sheet name="カラム説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgjMwcYhCVKv92n3jscl7wTKk76zw=="/>
     </ext>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>ファイル名</t>
   </si>
@@ -331,12 +338,24 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MEAN</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +406,13 @@
     <font>
       <sz val="6"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -473,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +546,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -29000,8 +29032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="15" customHeight="1"/>
@@ -30117,7 +30149,10 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <f>LOG10(80000)</f>
+        <v>4.9030899869919438</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -30137,7 +30172,10 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3">
+        <f>LOG10(10)</f>
+        <v>1</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -30177,8 +30215,11 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="I53" s="16">
+        <f>10^(7.2242)</f>
+        <v>16757143.933608271</v>
+      </c>
+      <c r="J53" s="16"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -30196,9 +30237,14 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="H54" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="16">
+        <f>10^(9.934498451)</f>
+        <v>8599999995.176815</v>
+      </c>
+      <c r="J54" s="16"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -30216,8 +30262,13 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="H55" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="3">
+        <f>10^(2.653212514)</f>
+        <v>450.00000023278062</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -30236,9 +30287,14 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="H56" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="16">
+        <f>10^(7.224216271)</f>
+        <v>16757771.757833397</v>
+      </c>
+      <c r="J56" s="16"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -34954,6 +35010,11 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I56:J56"/>
+  </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
